--- a/pa2/train_impute_SeriousDlqin2yrs.xlsx
+++ b/pa2/train_impute_SeriousDlqin2yrs.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09506666666666666</v>
+        <v>0.09803703703703703</v>
       </c>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9996916666666666</v>
+        <v>0.9996851851851852</v>
       </c>
       <c r="R2" t="s"/>
     </row>
@@ -588,7 +588,7 @@
         <v>21</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06743333333333333</v>
+        <v>0.06814814814814815</v>
       </c>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9456833333333333</v>
+        <v>0.9461388888888889</v>
       </c>
       <c r="R3" t="s"/>
     </row>
@@ -632,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0699</v>
+        <v>0.07166666666666667</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9476833333333333</v>
+        <v>0.948324074074074</v>
       </c>
       <c r="R4" t="s"/>
     </row>
@@ -676,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06653333333333333</v>
+        <v>0.06833333333333333</v>
       </c>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9414</v>
+        <v>0.9415740740740741</v>
       </c>
       <c r="R5" t="s"/>
     </row>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06653333333333333</v>
+        <v>0.06833333333333333</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9414</v>
+        <v>0.9415740740740741</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -766,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.07055555555555555</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.99975</v>
+        <v>0.9997407407407407</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06606666666666666</v>
+        <v>0.06862962962962962</v>
       </c>
       <c r="N8" t="s"/>
       <c r="O8" t="s">
@@ -820,7 +820,7 @@
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>0.9909249999999999</v>
+        <v>0.9907314814814815</v>
       </c>
       <c r="R8" t="s"/>
     </row>
@@ -856,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0659</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="N9" t="s"/>
       <c r="O9" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>0.9906166666666667</v>
+        <v>0.990212962962963</v>
       </c>
       <c r="R9" t="s"/>
     </row>
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06370000000000001</v>
+        <v>0.06596296296296296</v>
       </c>
       <c r="N10" t="s"/>
       <c r="O10" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>0.999725</v>
+        <v>0.9996851851851852</v>
       </c>
       <c r="R10" t="s"/>
     </row>
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06373333333333334</v>
+        <v>0.06633333333333333</v>
       </c>
       <c r="N11" t="s"/>
       <c r="O11" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>0.9996916666666666</v>
+        <v>0.9996759259259259</v>
       </c>
       <c r="R11" t="s"/>
     </row>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06403333333333333</v>
+        <v>0.06651851851851852</v>
       </c>
       <c r="N12" t="s"/>
       <c r="O12" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>0.999475</v>
+        <v>0.999537037037037</v>
       </c>
       <c r="R12" t="s"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06453333333333333</v>
+        <v>0.0662962962962963</v>
       </c>
       <c r="N13" t="s"/>
       <c r="O13" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>0.9995083333333333</v>
+        <v>0.9995925925925926</v>
       </c>
       <c r="R13" t="s"/>
     </row>
@@ -1084,7 +1084,7 @@
         <v>21</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06413333333333333</v>
+        <v>0.06655555555555556</v>
       </c>
       <c r="N14" t="s">
         <v>20</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>0.9995916666666667</v>
+        <v>0.9994722222222222</v>
       </c>
       <c r="R14" t="s"/>
     </row>
@@ -1132,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06383333333333334</v>
+        <v>0.06688888888888889</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>0.9995000000000001</v>
+        <v>0.9995185185185185</v>
       </c>
       <c r="R15" t="s"/>
     </row>
@@ -1180,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06573333333333334</v>
+        <v>0.06755555555555555</v>
       </c>
       <c r="N16" t="n">
         <v>5</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>0.99795</v>
+        <v>0.9980370370370371</v>
       </c>
       <c r="R16" t="s"/>
     </row>
@@ -1228,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0722</v>
+        <v>0.07511111111111111</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>0.985525</v>
+        <v>0.9863148148148149</v>
       </c>
       <c r="R17" t="s"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1002333333333333</v>
+        <v>0.103037037037037</v>
       </c>
       <c r="N18" t="s">
         <v>20</v>
@@ -1282,7 +1282,7 @@
       <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>0.99975</v>
+        <v>0.9997407407407407</v>
       </c>
       <c r="R18" t="s"/>
     </row>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1014</v>
+        <v>0.1034814814814815</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1326,7 +1326,7 @@
       <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>0.99975</v>
+        <v>0.9997407407407407</v>
       </c>
       <c r="R19" t="s"/>
     </row>
@@ -1362,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09336666666666667</v>
+        <v>0.09588888888888888</v>
       </c>
       <c r="N20" t="n">
         <v>5</v>
@@ -1370,7 +1370,7 @@
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>0.9854416666666667</v>
+        <v>0.9865462962962963</v>
       </c>
       <c r="R20" t="s"/>
     </row>
@@ -1406,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08756666666666667</v>
+        <v>0.0887037037037037</v>
       </c>
       <c r="N21" t="n">
         <v>10</v>
@@ -1414,7 +1414,7 @@
       <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>0.972325</v>
+        <v>0.9728333333333333</v>
       </c>
       <c r="R21" t="s"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08766666666666667</v>
+        <v>0.08914814814814814</v>
       </c>
       <c r="N22" t="n">
         <v>10</v>
@@ -1460,7 +1460,7 @@
       <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>0.972325</v>
+        <v>0.9728796296296296</v>
       </c>
       <c r="R22" t="s"/>
     </row>
@@ -1498,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1317666666666667</v>
+        <v>0.1323703703703704</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
@@ -1506,7 +1506,7 @@
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>0.94815</v>
+        <v>0.9508240740740741</v>
       </c>
       <c r="R23" t="s"/>
     </row>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1308666666666667</v>
+        <v>0.131962962962963</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
@@ -1554,7 +1554,7 @@
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>0.9480333333333333</v>
+        <v>0.9508333333333333</v>
       </c>
       <c r="R24" t="s"/>
     </row>
@@ -1594,7 +1594,7 @@
         <v>21</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1315</v>
+        <v>0.1322592592592593</v>
       </c>
       <c r="N25" t="n">
         <v>10</v>
@@ -1602,7 +1602,7 @@
       <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>0.9482416666666666</v>
+        <v>0.9507407407407408</v>
       </c>
       <c r="R25" t="s"/>
     </row>
@@ -1638,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09760000000000001</v>
+        <v>0.09859259259259259</v>
       </c>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9996583333333333</v>
+        <v>0.9996111111111111</v>
       </c>
       <c r="R26" t="s"/>
     </row>
@@ -1682,7 +1682,7 @@
         <v>21</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07076666666666667</v>
+        <v>0.06888888888888889</v>
       </c>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9463916666666666</v>
+        <v>0.9464166666666667</v>
       </c>
       <c r="R27" t="s"/>
     </row>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07386666666666666</v>
+        <v>0.07288888888888889</v>
       </c>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9484416666666666</v>
+        <v>0.9484351851851852</v>
       </c>
       <c r="R28" t="s"/>
     </row>
@@ -1770,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07023333333333333</v>
+        <v>0.06814814814814815</v>
       </c>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
@@ -1778,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.941975</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="R29" t="s"/>
     </row>
@@ -1814,7 +1814,7 @@
         <v>21</v>
       </c>
       <c r="M30" t="n">
-        <v>0.07023333333333333</v>
+        <v>0.06814814814814815</v>
       </c>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.941975</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="R30" t="s">
         <v>22</v>
@@ -1860,7 +1860,7 @@
         <v>21</v>
       </c>
       <c r="M31" t="n">
-        <v>0.07283333333333333</v>
+        <v>0.07051851851851852</v>
       </c>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
@@ -1868,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9997166666666667</v>
+        <v>0.9996574074074074</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -1906,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0673</v>
+        <v>0.06696296296296296</v>
       </c>
       <c r="N32" t="s"/>
       <c r="O32" t="s">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>0.9907416666666666</v>
+        <v>0.9907037037037038</v>
       </c>
       <c r="R32" t="s"/>
     </row>
@@ -1950,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06766666666666667</v>
+        <v>0.06722222222222222</v>
       </c>
       <c r="N33" t="s"/>
       <c r="O33" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>0.9903083333333333</v>
+        <v>0.9905555555555555</v>
       </c>
       <c r="R33" t="s"/>
     </row>
@@ -1994,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06593333333333333</v>
+        <v>0.06503703703703703</v>
       </c>
       <c r="N34" t="s"/>
       <c r="O34" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>0.9996833333333334</v>
+        <v>0.9996018518518518</v>
       </c>
       <c r="R34" t="s"/>
     </row>
@@ -2040,7 +2040,7 @@
         <v>21</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06606666666666666</v>
+        <v>0.06455555555555556</v>
       </c>
       <c r="N35" t="s"/>
       <c r="O35" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>0.9996583333333333</v>
+        <v>0.9996296296296296</v>
       </c>
       <c r="R35" t="s"/>
     </row>
@@ -2086,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="M36" t="n">
-        <v>0.067</v>
+        <v>0.06607407407407408</v>
       </c>
       <c r="N36" t="s"/>
       <c r="O36" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>0.9994333333333333</v>
+        <v>0.9994074074074074</v>
       </c>
       <c r="R36" t="s"/>
     </row>
@@ -2132,7 +2132,7 @@
         <v>21</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06726666666666667</v>
+        <v>0.06651851851851852</v>
       </c>
       <c r="N37" t="s"/>
       <c r="O37" t="n">
@@ -2140,565 +2140,9 @@
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>0.9994166666666666</v>
+        <v>0.9994444444444445</v>
       </c>
       <c r="R37" t="s"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="n">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" t="s"/>
-      <c r="F38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.06716666666666667</v>
-      </c>
-      <c r="N38" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" t="n">
-        <v>100</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>0.9994416666666667</v>
-      </c>
-      <c r="R38" t="s"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" t="n">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s"/>
-      <c r="F39" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.06613333333333334</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>100</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>0.9993833333333333</v>
-      </c>
-      <c r="R39" t="s"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="n">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s"/>
-      <c r="F40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.06933333333333333</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>100</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>0.9979833333333333</v>
-      </c>
-      <c r="R40" t="s"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" t="n">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s"/>
-      <c r="F41" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.07486666666666666</v>
-      </c>
-      <c r="N41" t="n">
-        <v>10</v>
-      </c>
-      <c r="O41" t="n">
-        <v>100</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>0.9863499999999999</v>
-      </c>
-      <c r="R41" t="s"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="n">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s"/>
-      <c r="F42" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" t="s"/>
-      <c r="J42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s"/>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.1033333333333333</v>
-      </c>
-      <c r="N42" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" t="s"/>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="n">
-        <v>0.9997166666666667</v>
-      </c>
-      <c r="R42" t="s"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" t="n">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s"/>
-      <c r="F43" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" t="s"/>
-      <c r="J43" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.1041333333333333</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s"/>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>0.9997166666666667</v>
-      </c>
-      <c r="R43" t="s"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="n">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s"/>
-      <c r="F44" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" t="s"/>
-      <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.09760000000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5</v>
-      </c>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="n">
-        <v>0.9856416666666666</v>
-      </c>
-      <c r="R44" t="s"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" t="n">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s"/>
-      <c r="F45" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" t="s"/>
-      <c r="J45" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.09086666666666667</v>
-      </c>
-      <c r="N45" t="n">
-        <v>10</v>
-      </c>
-      <c r="O45" t="s"/>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>0.9721333333333333</v>
-      </c>
-      <c r="R45" t="s"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" t="n">
-        <v>45</v>
-      </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s"/>
-      <c r="F46" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.0897</v>
-      </c>
-      <c r="N46" t="n">
-        <v>10</v>
-      </c>
-      <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="n">
-        <v>0.972025</v>
-      </c>
-      <c r="R46" t="s"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" t="n">
-        <v>46</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s"/>
-      <c r="F47" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.1352333333333333</v>
-      </c>
-      <c r="N47" t="n">
-        <v>10</v>
-      </c>
-      <c r="O47" t="s"/>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="n">
-        <v>0.949125</v>
-      </c>
-      <c r="R47" t="s"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" t="n">
-        <v>47</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s"/>
-      <c r="F48" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.1348666666666667</v>
-      </c>
-      <c r="N48" t="n">
-        <v>10</v>
-      </c>
-      <c r="O48" t="s"/>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="n">
-        <v>0.9490499999999999</v>
-      </c>
-      <c r="R48" t="s"/>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" t="n">
-        <v>48</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s"/>
-      <c r="F49" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" t="s">
-        <v>25</v>
-      </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" t="n">
-        <v>100</v>
-      </c>
-      <c r="L49" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.1353</v>
-      </c>
-      <c r="N49" t="n">
-        <v>10</v>
-      </c>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="n">
-        <v>0.948875</v>
-      </c>
-      <c r="R49" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/pa2/train_impute_SeriousDlqin2yrs.xlsx
+++ b/pa2/train_impute_SeriousDlqin2yrs.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09803703703703703</v>
+        <v>0.09425925925925926</v>
       </c>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9996851851851852</v>
+        <v>0.9996388888888889</v>
       </c>
       <c r="R2" t="s"/>
     </row>
@@ -588,7 +588,7 @@
         <v>21</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06814814814814815</v>
+        <v>0.06718518518518518</v>
       </c>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9461388888888889</v>
+        <v>0.9455462962962963</v>
       </c>
       <c r="R3" t="s"/>
     </row>
@@ -632,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07166666666666667</v>
+        <v>0.0704074074074074</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.948324074074074</v>
+        <v>0.9477407407407408</v>
       </c>
       <c r="R4" t="s"/>
     </row>
@@ -676,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06833333333333333</v>
+        <v>0.0662962962962963</v>
       </c>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9415740740740741</v>
+        <v>0.9409907407407407</v>
       </c>
       <c r="R5" t="s"/>
     </row>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06833333333333333</v>
+        <v>0.0662962962962963</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9415740740740741</v>
+        <v>0.9409907407407407</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -766,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07055555555555555</v>
+        <v>0.06844444444444445</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9997407407407407</v>
+        <v>0.9996759259259259</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06862962962962962</v>
+        <v>0.0652962962962963</v>
       </c>
       <c r="N8" t="s"/>
       <c r="O8" t="s">
@@ -820,7 +820,7 @@
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>0.9907314814814815</v>
+        <v>0.9903055555555556</v>
       </c>
       <c r="R8" t="s"/>
     </row>
@@ -856,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.06507407407407408</v>
       </c>
       <c r="N9" t="s"/>
       <c r="O9" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>0.990212962962963</v>
+        <v>0.9905925925925926</v>
       </c>
       <c r="R9" t="s"/>
     </row>
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06596296296296296</v>
+        <v>0.063</v>
       </c>
       <c r="N10" t="s"/>
       <c r="O10" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>0.9996851851851852</v>
+        <v>0.9996203703703703</v>
       </c>
       <c r="R10" t="s"/>
     </row>
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06633333333333333</v>
+        <v>0.063</v>
       </c>
       <c r="N11" t="s"/>
       <c r="O11" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>0.9996759259259259</v>
+        <v>0.9996481481481482</v>
       </c>
       <c r="R11" t="s"/>
     </row>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06651851851851852</v>
+        <v>0.06403703703703703</v>
       </c>
       <c r="N12" t="s"/>
       <c r="O12" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>0.999537037037037</v>
+        <v>0.999287037037037</v>
       </c>
       <c r="R12" t="s"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0662962962962963</v>
+        <v>0.06403703703703703</v>
       </c>
       <c r="N13" t="s"/>
       <c r="O13" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>0.9995925925925926</v>
+        <v>0.9993796296296297</v>
       </c>
       <c r="R13" t="s"/>
     </row>
@@ -1084,7 +1084,7 @@
         <v>21</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06655555555555556</v>
+        <v>0.06381481481481481</v>
       </c>
       <c r="N14" t="s">
         <v>20</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>0.9994722222222222</v>
+        <v>0.9993240740740741</v>
       </c>
       <c r="R14" t="s"/>
     </row>
@@ -1132,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06688888888888889</v>
+        <v>0.06418518518518518</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>0.9995185185185185</v>
+        <v>0.9994074074074074</v>
       </c>
       <c r="R15" t="s"/>
     </row>
@@ -1180,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06755555555555555</v>
+        <v>0.06651851851851852</v>
       </c>
       <c r="N16" t="n">
         <v>5</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>0.9980370370370371</v>
+        <v>0.9976944444444444</v>
       </c>
       <c r="R16" t="s"/>
     </row>
@@ -1228,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07511111111111111</v>
+        <v>0.0722962962962963</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>0.9863148148148149</v>
+        <v>0.9858981481481481</v>
       </c>
       <c r="R17" t="s"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="M18" t="n">
-        <v>0.103037037037037</v>
+        <v>0.1001481481481482</v>
       </c>
       <c r="N18" t="s">
         <v>20</v>
@@ -1282,7 +1282,7 @@
       <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>0.9997407407407407</v>
+        <v>0.9996759259259259</v>
       </c>
       <c r="R18" t="s"/>
     </row>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1034814814814815</v>
+        <v>0.09977777777777778</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1326,7 +1326,7 @@
       <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>0.9997407407407407</v>
+        <v>0.9996759259259259</v>
       </c>
       <c r="R19" t="s"/>
     </row>
@@ -1362,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09588888888888888</v>
+        <v>0.09392592592592593</v>
       </c>
       <c r="N20" t="n">
         <v>5</v>
@@ -1370,7 +1370,7 @@
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>0.9865462962962963</v>
+        <v>0.9863333333333333</v>
       </c>
       <c r="R20" t="s"/>
     </row>
@@ -1406,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0887037037037037</v>
+        <v>0.08777777777777777</v>
       </c>
       <c r="N21" t="n">
         <v>10</v>
@@ -1414,7 +1414,7 @@
       <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>0.9728333333333333</v>
+        <v>0.9723148148148149</v>
       </c>
       <c r="R21" t="s"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08914814814814814</v>
+        <v>0.08733333333333333</v>
       </c>
       <c r="N22" t="n">
         <v>10</v>
@@ -1460,7 +1460,7 @@
       <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>0.9728796296296296</v>
+        <v>0.9724259259259259</v>
       </c>
       <c r="R22" t="s"/>
     </row>
@@ -1506,7 +1506,7 @@
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>0.9508240740740741</v>
+        <v>0.9475462962962963</v>
       </c>
       <c r="R23" t="s"/>
     </row>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="M24" t="n">
-        <v>0.131962962962963</v>
+        <v>0.1326296296296296</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
@@ -1554,7 +1554,7 @@
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>0.9508333333333333</v>
+        <v>0.947462962962963</v>
       </c>
       <c r="R24" t="s"/>
     </row>
@@ -1594,7 +1594,7 @@
         <v>21</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1322592592592593</v>
+        <v>0.1320740740740741</v>
       </c>
       <c r="N25" t="n">
         <v>10</v>
@@ -1602,7 +1602,7 @@
       <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>0.9507407407407408</v>
+        <v>0.9475370370370371</v>
       </c>
       <c r="R25" t="s"/>
     </row>
@@ -1638,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09859259259259259</v>
+        <v>0.09481481481481481</v>
       </c>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9996111111111111</v>
+        <v>0.9996759259259259</v>
       </c>
       <c r="R26" t="s"/>
     </row>
@@ -1682,7 +1682,7 @@
         <v>21</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06888888888888889</v>
+        <v>0.06614814814814815</v>
       </c>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9464166666666667</v>
+        <v>0.9455370370370371</v>
       </c>
       <c r="R27" t="s"/>
     </row>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07288888888888889</v>
+        <v>0.07011111111111111</v>
       </c>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9484351851851852</v>
+        <v>0.9472685185185186</v>
       </c>
       <c r="R28" t="s"/>
     </row>
@@ -1770,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06814814814814815</v>
+        <v>0.06496296296296296</v>
       </c>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
@@ -1778,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9412314814814815</v>
       </c>
       <c r="R29" t="s"/>
     </row>
@@ -1814,7 +1814,7 @@
         <v>21</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06814814814814815</v>
+        <v>0.06496296296296296</v>
       </c>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9412314814814815</v>
       </c>
       <c r="R30" t="s">
         <v>22</v>
@@ -1860,7 +1860,7 @@
         <v>21</v>
       </c>
       <c r="M31" t="n">
-        <v>0.07051851851851852</v>
+        <v>0.06714814814814815</v>
       </c>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
@@ -1868,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9996574074074074</v>
+        <v>0.999712962962963</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -1906,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06696296296296296</v>
+        <v>0.06574074074074074</v>
       </c>
       <c r="N32" t="s"/>
       <c r="O32" t="s">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>0.9907037037037038</v>
+        <v>0.9905185185185185</v>
       </c>
       <c r="R32" t="s"/>
     </row>
@@ -1950,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06722222222222222</v>
+        <v>0.06507407407407408</v>
       </c>
       <c r="N33" t="s"/>
       <c r="O33" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>0.9905555555555555</v>
+        <v>0.9909814814814815</v>
       </c>
       <c r="R33" t="s"/>
     </row>
@@ -1994,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06503703703703703</v>
+        <v>0.063</v>
       </c>
       <c r="N34" t="s"/>
       <c r="O34" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>0.9996018518518518</v>
+        <v>0.9996759259259259</v>
       </c>
       <c r="R34" t="s"/>
     </row>
@@ -2040,7 +2040,7 @@
         <v>21</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06455555555555556</v>
+        <v>0.06188888888888889</v>
       </c>
       <c r="N35" t="s"/>
       <c r="O35" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>0.9996296296296296</v>
+        <v>0.9996481481481482</v>
       </c>
       <c r="R35" t="s"/>
     </row>
@@ -2086,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06607407407407408</v>
+        <v>0.06337037037037037</v>
       </c>
       <c r="N36" t="s"/>
       <c r="O36" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>0.9994074074074074</v>
+        <v>0.9994166666666666</v>
       </c>
       <c r="R36" t="s"/>
     </row>
@@ -2132,7 +2132,7 @@
         <v>21</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06651851851851852</v>
+        <v>0.06385185185185185</v>
       </c>
       <c r="N37" t="s"/>
       <c r="O37" t="n">
@@ -2140,9 +2140,565 @@
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
+        <v>0.9994259259259259</v>
+      </c>
+      <c r="R37" t="s"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s"/>
+      <c r="F38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.06396296296296296</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="n">
+        <v>100</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>0.9993611111111111</v>
+      </c>
+      <c r="R38" t="s"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s"/>
+      <c r="F39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>100</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
         <v>0.9994444444444445</v>
       </c>
-      <c r="R37" t="s"/>
+      <c r="R39" t="s"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s"/>
+      <c r="F40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.06507407407407408</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>100</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>0.9975648148148148</v>
+      </c>
+      <c r="R40" t="s"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s"/>
+      <c r="F41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.07237037037037038</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" t="n">
+        <v>100</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>0.985462962962963</v>
+      </c>
+      <c r="R41" t="s"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s"/>
+      <c r="F42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1014444444444444</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>0.999712962962963</v>
+      </c>
+      <c r="R42" t="s"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s"/>
+      <c r="F43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.09985185185185186</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>0.999712962962963</v>
+      </c>
+      <c r="R43" t="s"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s"/>
+      <c r="F44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.09462962962962963</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>0.9860555555555556</v>
+      </c>
+      <c r="R44" t="s"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="n">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s"/>
+      <c r="F45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.08751851851851852</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="R45" t="s"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s"/>
+      <c r="F46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.08781481481481482</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>0.9719444444444445</v>
+      </c>
+      <c r="R46" t="s"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s"/>
+      <c r="F47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1314814814814815</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10</v>
+      </c>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>0.9467407407407408</v>
+      </c>
+      <c r="R47" t="s"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s"/>
+      <c r="F48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.1322222222222222</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>0.9466481481481481</v>
+      </c>
+      <c r="R48" t="s"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="n">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s"/>
+      <c r="F49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" t="n">
+        <v>100</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.1324814814814815</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>0.9466018518518519</v>
+      </c>
+      <c r="R49" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/pa2/train_impute_SeriousDlqin2yrs.xlsx
+++ b/pa2/train_impute_SeriousDlqin2yrs.xlsx
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09425925925925926</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9996388888888889</v>
+        <v>0.9997314814814815</v>
       </c>
       <c r="R2" t="s"/>
     </row>
@@ -588,7 +588,7 @@
         <v>21</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06718518518518518</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9455462962962963</v>
+        <v>0.9457037037037037</v>
       </c>
       <c r="R3" t="s"/>
     </row>
@@ -632,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0704074074074074</v>
+        <v>0.07285185185185185</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9477407407407408</v>
+        <v>0.9478981481481481</v>
       </c>
       <c r="R4" t="s"/>
     </row>
@@ -676,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0662962962962963</v>
+        <v>0.06814814814814815</v>
       </c>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9409907407407407</v>
+        <v>0.9413888888888889</v>
       </c>
       <c r="R5" t="s"/>
     </row>
@@ -720,7 +720,7 @@
         <v>21</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0662962962962963</v>
+        <v>0.06814814814814815</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9409907407407407</v>
+        <v>0.9413888888888889</v>
       </c>
       <c r="R6" t="s">
         <v>22</v>
@@ -766,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06844444444444445</v>
+        <v>0.07018518518518518</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9996759259259259</v>
+        <v>0.9997685185185186</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0652962962962963</v>
+        <v>0.06811111111111111</v>
       </c>
       <c r="N8" t="s"/>
       <c r="O8" t="s">
@@ -820,7 +820,7 @@
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>0.9903055555555556</v>
+        <v>0.9903888888888889</v>
       </c>
       <c r="R8" t="s"/>
     </row>
@@ -856,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06507407407407408</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="N9" t="s"/>
       <c r="O9" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>0.9905925925925926</v>
+        <v>0.9906203703703703</v>
       </c>
       <c r="R9" t="s"/>
     </row>
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="M10" t="n">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
       <c r="N10" t="s"/>
       <c r="O10" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>0.9996203703703703</v>
+        <v>0.9996944444444444</v>
       </c>
       <c r="R10" t="s"/>
     </row>
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="M11" t="n">
-        <v>0.063</v>
+        <v>0.06518518518518518</v>
       </c>
       <c r="N11" t="s"/>
       <c r="O11" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>0.9996481481481482</v>
+        <v>0.9997037037037036</v>
       </c>
       <c r="R11" t="s"/>
     </row>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06403703703703703</v>
+        <v>0.06566666666666666</v>
       </c>
       <c r="N12" t="s"/>
       <c r="O12" t="n">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>0.999287037037037</v>
+        <v>0.9996018518518518</v>
       </c>
       <c r="R12" t="s"/>
     </row>
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06403703703703703</v>
+        <v>0.06551851851851852</v>
       </c>
       <c r="N13" t="s"/>
       <c r="O13" t="n">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>0.9993796296296297</v>
+        <v>0.9996203703703703</v>
       </c>
       <c r="R13" t="s"/>
     </row>
@@ -1084,7 +1084,7 @@
         <v>21</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06381481481481481</v>
+        <v>0.06548148148148149</v>
       </c>
       <c r="N14" t="s">
         <v>20</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>0.9993240740740741</v>
+        <v>0.9995648148148149</v>
       </c>
       <c r="R14" t="s"/>
     </row>
@@ -1132,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06418518518518518</v>
+        <v>0.06611111111111111</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>0.9994074074074074</v>
+        <v>0.9996296296296296</v>
       </c>
       <c r="R15" t="s"/>
     </row>
@@ -1180,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06651851851851852</v>
+        <v>0.06714814814814815</v>
       </c>
       <c r="N16" t="n">
         <v>5</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
-        <v>0.9976944444444444</v>
+        <v>0.9980462962962963</v>
       </c>
       <c r="R16" t="s"/>
     </row>
@@ -1228,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0722962962962963</v>
+        <v>0.07274074074074074</v>
       </c>
       <c r="N17" t="n">
         <v>10</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>0.9858981481481481</v>
+        <v>0.9856574074074074</v>
       </c>
       <c r="R17" t="s"/>
     </row>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1001481481481482</v>
+        <v>0.1026666666666667</v>
       </c>
       <c r="N18" t="s">
         <v>20</v>
@@ -1282,7 +1282,7 @@
       <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>0.9996759259259259</v>
+        <v>0.9997685185185186</v>
       </c>
       <c r="R18" t="s"/>
     </row>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="M19" t="n">
-        <v>0.09977777777777778</v>
+        <v>0.1008148148148148</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1326,7 +1326,7 @@
       <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>0.9996759259259259</v>
+        <v>0.9997685185185186</v>
       </c>
       <c r="R19" t="s"/>
     </row>
@@ -1362,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09392592592592593</v>
+        <v>0.09477777777777778</v>
       </c>
       <c r="N20" t="n">
         <v>5</v>
@@ -1370,7 +1370,7 @@
       <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>0.9863333333333333</v>
+        <v>0.98625</v>
       </c>
       <c r="R20" t="s"/>
     </row>
@@ -1406,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08777777777777777</v>
+        <v>0.08662962962962963</v>
       </c>
       <c r="N21" t="n">
         <v>10</v>
@@ -1414,7 +1414,7 @@
       <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>0.9723148148148149</v>
+        <v>0.9719444444444445</v>
       </c>
       <c r="R21" t="s"/>
     </row>
@@ -1452,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08733333333333333</v>
+        <v>0.08622222222222223</v>
       </c>
       <c r="N22" t="n">
         <v>10</v>
@@ -1460,7 +1460,7 @@
       <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>0.9724259259259259</v>
+        <v>0.9717777777777777</v>
       </c>
       <c r="R22" t="s"/>
     </row>
@@ -1498,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1323703703703704</v>
+        <v>0.1307777777777778</v>
       </c>
       <c r="N23" t="n">
         <v>10</v>
@@ -1506,7 +1506,7 @@
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>0.9475462962962963</v>
+        <v>0.9485555555555556</v>
       </c>
       <c r="R23" t="s"/>
     </row>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1326296296296296</v>
+        <v>0.1298888888888889</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
@@ -1554,7 +1554,7 @@
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>0.947462962962963</v>
+        <v>0.948675925925926</v>
       </c>
       <c r="R24" t="s"/>
     </row>
@@ -1594,7 +1594,7 @@
         <v>21</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1320740740740741</v>
+        <v>0.1295555555555556</v>
       </c>
       <c r="N25" t="n">
         <v>10</v>
@@ -1602,7 +1602,7 @@
       <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>0.9475370370370371</v>
+        <v>0.9488333333333333</v>
       </c>
       <c r="R25" t="s"/>
     </row>
@@ -1638,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09481481481481481</v>
+        <v>0.09485185185185185</v>
       </c>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9996759259259259</v>
+        <v>0.9996574074074074</v>
       </c>
       <c r="R26" t="s"/>
     </row>
@@ -1682,7 +1682,7 @@
         <v>21</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06614814814814815</v>
+        <v>0.06781481481481481</v>
       </c>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9455370370370371</v>
+        <v>0.9454259259259259</v>
       </c>
       <c r="R27" t="s"/>
     </row>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07011111111111111</v>
+        <v>0.07062962962962963</v>
       </c>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9472685185185186</v>
+        <v>0.9475555555555556</v>
       </c>
       <c r="R28" t="s"/>
     </row>
@@ -1770,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06496296296296296</v>
+        <v>0.06707407407407408</v>
       </c>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
@@ -1778,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9412314814814815</v>
+        <v>0.9411851851851852</v>
       </c>
       <c r="R29" t="s"/>
     </row>
@@ -1814,7 +1814,7 @@
         <v>21</v>
       </c>
       <c r="M30" t="n">
-        <v>0.06496296296296296</v>
+        <v>0.06707407407407408</v>
       </c>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
@@ -1822,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.9412314814814815</v>
+        <v>0.9411851851851852</v>
       </c>
       <c r="R30" t="s">
         <v>22</v>
@@ -1860,7 +1860,7 @@
         <v>21</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06714814814814815</v>
+        <v>0.06996296296296296</v>
       </c>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
@@ -1868,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.999712962962963</v>
+        <v>0.9997222222222222</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -1906,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06574074074074074</v>
+        <v>0.06688888888888889</v>
       </c>
       <c r="N32" t="s"/>
       <c r="O32" t="s">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>0.9905185185185185</v>
+        <v>0.9907777777777778</v>
       </c>
       <c r="R32" t="s"/>
     </row>
@@ -1950,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06507407407407408</v>
+        <v>0.06607407407407408</v>
       </c>
       <c r="N33" t="s"/>
       <c r="O33" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>0.9909814814814815</v>
+        <v>0.9908333333333333</v>
       </c>
       <c r="R33" t="s"/>
     </row>
@@ -1994,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="M34" t="n">
-        <v>0.063</v>
+        <v>0.06403703703703703</v>
       </c>
       <c r="N34" t="s"/>
       <c r="O34" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>0.9996759259259259</v>
+        <v>0.9996666666666667</v>
       </c>
       <c r="R34" t="s"/>
     </row>
@@ -2040,7 +2040,7 @@
         <v>21</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06188888888888889</v>
+        <v>0.06414814814814815</v>
       </c>
       <c r="N35" t="s"/>
       <c r="O35" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
-        <v>0.9996481481481482</v>
+        <v>0.9996759259259259</v>
       </c>
       <c r="R35" t="s"/>
     </row>
@@ -2086,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06337037037037037</v>
+        <v>0.06503703703703703</v>
       </c>
       <c r="N36" t="s"/>
       <c r="O36" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>0.9994166666666666</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="R36" t="s"/>
     </row>
@@ -2132,7 +2132,7 @@
         <v>21</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06385185185185185</v>
+        <v>0.06533333333333333</v>
       </c>
       <c r="N37" t="s"/>
       <c r="O37" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>0.9994259259259259</v>
+        <v>0.9994722222222222</v>
       </c>
       <c r="R37" t="s"/>
     </row>
@@ -2178,7 +2178,7 @@
         <v>21</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06396296296296296</v>
+        <v>0.06440740740740741</v>
       </c>
       <c r="N38" t="s">
         <v>20</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>0.9993611111111111</v>
+        <v>0.9993888888888889</v>
       </c>
       <c r="R38" t="s"/>
     </row>
@@ -2226,7 +2226,7 @@
         <v>21</v>
       </c>
       <c r="M39" t="n">
-        <v>0.064</v>
+        <v>0.06462962962962963</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>0.9994444444444445</v>
+        <v>0.9993888888888889</v>
       </c>
       <c r="R39" t="s"/>
     </row>
@@ -2274,7 +2274,7 @@
         <v>21</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06507407407407408</v>
+        <v>0.06718518518518518</v>
       </c>
       <c r="N40" t="n">
         <v>5</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>0.9975648148148148</v>
+        <v>0.9975462962962963</v>
       </c>
       <c r="R40" t="s"/>
     </row>
@@ -2322,7 +2322,7 @@
         <v>21</v>
       </c>
       <c r="M41" t="n">
-        <v>0.07237037037037038</v>
+        <v>0.073</v>
       </c>
       <c r="N41" t="n">
         <v>10</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>0.985462962962963</v>
+        <v>0.9860185185185185</v>
       </c>
       <c r="R41" t="s"/>
     </row>
@@ -2368,7 +2368,7 @@
         <v>21</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1014444444444444</v>
+        <v>0.1025555555555556</v>
       </c>
       <c r="N42" t="s">
         <v>20</v>
@@ -2376,7 +2376,7 @@
       <c r="O42" t="s"/>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>0.999712962962963</v>
+        <v>0.9997222222222222</v>
       </c>
       <c r="R42" t="s"/>
     </row>
@@ -2412,7 +2412,7 @@
         <v>21</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09985185185185186</v>
+        <v>0.1026296296296296</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
@@ -2420,7 +2420,7 @@
       <c r="O43" t="s"/>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>0.999712962962963</v>
+        <v>0.9997222222222222</v>
       </c>
       <c r="R43" t="s"/>
     </row>
@@ -2456,7 +2456,7 @@
         <v>21</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09462962962962963</v>
+        <v>0.09633333333333334</v>
       </c>
       <c r="N44" t="n">
         <v>5</v>
@@ -2464,7 +2464,7 @@
       <c r="O44" t="s"/>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>0.9860555555555556</v>
+        <v>0.9860925925925926</v>
       </c>
       <c r="R44" t="s"/>
     </row>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="M45" t="n">
-        <v>0.08751851851851852</v>
+        <v>0.08962962962962963</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
@@ -2508,7 +2508,7 @@
       <c r="O45" t="s"/>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>0.972</v>
+        <v>0.9718611111111111</v>
       </c>
       <c r="R45" t="s"/>
     </row>
@@ -2546,7 +2546,7 @@
         <v>21</v>
       </c>
       <c r="M46" t="n">
-        <v>0.08781481481481482</v>
+        <v>0.08914814814814814</v>
       </c>
       <c r="N46" t="n">
         <v>10</v>
@@ -2554,7 +2554,7 @@
       <c r="O46" t="s"/>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
-        <v>0.9719444444444445</v>
+        <v>0.9718425925925926</v>
       </c>
       <c r="R46" t="s"/>
     </row>
@@ -2592,7 +2592,7 @@
         <v>21</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1314814814814815</v>
+        <v>0.1347407407407407</v>
       </c>
       <c r="N47" t="n">
         <v>10</v>
@@ -2600,7 +2600,7 @@
       <c r="O47" t="s"/>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>0.9467407407407408</v>
+        <v>0.9480833333333333</v>
       </c>
       <c r="R47" t="s"/>
     </row>
@@ -2640,7 +2640,7 @@
         <v>21</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1322222222222222</v>
+        <v>0.1353333333333333</v>
       </c>
       <c r="N48" t="n">
         <v>10</v>
@@ -2648,7 +2648,7 @@
       <c r="O48" t="s"/>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>0.9466481481481481</v>
+        <v>0.9479722222222222</v>
       </c>
       <c r="R48" t="s"/>
     </row>
@@ -2688,7 +2688,7 @@
         <v>21</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1324814814814815</v>
+        <v>0.1348148148148148</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
@@ -2696,7 +2696,7 @@
       <c r="O49" t="s"/>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>0.9466018518518519</v>
+        <v>0.9481203703703703</v>
       </c>
       <c r="R49" t="s"/>
     </row>
